--- a/station/station-src/src/main/resources/templete/电池组充放电记录表.xlsx
+++ b/station/station-src/src/main/resources/templete/电池组充放电记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="电池组数据" sheetId="1" r:id="rId1"/>
@@ -226,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -348,6 +348,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -357,134 +485,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -541,169 +541,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,26 +857,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +896,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -907,21 +931,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,15 +949,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -960,10 +960,10 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,133 +972,133 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1769,7 +1769,7 @@
   <sheetPr/>
   <dimension ref="A1:BR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2643,8 +2643,8 @@
   <sheetPr/>
   <dimension ref="A1:BR8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -2962,10 +2962,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>36</v>
